--- a/medicine/Mort/Liste_des_accidents_mortels_aux_24_Heures_du_Mans/Liste_des_accidents_mortels_aux_24_Heures_du_Mans.xlsx
+++ b/medicine/Mort/Liste_des_accidents_mortels_aux_24_Heures_du_Mans/Liste_des_accidents_mortels_aux_24_Heures_du_Mans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des accidents mortels aux 24 Heures du Mans regroupe les pilotes qui ont trouvé la mort durant le week-end des 24 Heures du Mans ou pendant les différentes phases d'essais et de qualifications pour la préparation de cette course. Ne sont pas pris en compte les accidents incluant les commissaires de courses ou autres spectateurs comme la catastrophe de 1955 qui a coûté la vie à 82 personnes.
 En tout, vingt-deux pilotes ont perdu la vie pendant le déroulement de cet événement depuis sa création en 1923 ; seize en course, cinq durant les essais et qualifications et un dans un accident de la circulation en dehors du circuit.
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
